--- a/upcoming.xlsx
+++ b/upcoming.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Home Team</t>
   </si>
@@ -64,13 +64,22 @@
     <t>Alashkert FC</t>
   </si>
   <si>
+    <t>Bnei Yehuda Tel Aviv</t>
+  </si>
+  <si>
+    <t>Maccabi Netanya</t>
+  </si>
+  <si>
+    <t>Sagadam</t>
+  </si>
+  <si>
     <t>FC Energetik</t>
   </si>
   <si>
     <t>Kopetdag Asgabat</t>
   </si>
   <si>
-    <t>Sagadam</t>
+    <t>Ahal Youth</t>
   </si>
   <si>
     <t>Bayer Leverkusen</t>
@@ -79,13 +88,22 @@
     <t>Lokomotiv</t>
   </si>
   <si>
+    <t>Beitar Jerusalem</t>
+  </si>
+  <si>
+    <t>Hapoel Beer Sheva</t>
+  </si>
+  <si>
+    <t>Nebitci</t>
+  </si>
+  <si>
     <t>Merw</t>
   </si>
   <si>
     <t>FC Asgabat</t>
   </si>
   <si>
-    <t>Nebitci</t>
+    <t>Altyn Asyr FK Youth</t>
   </si>
 </sst>
 </file>
@@ -443,7 +461,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -501,7 +519,7 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D2">
         <v>1.176470588235294</v>
@@ -548,7 +566,7 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D3">
         <v>5</v>
@@ -595,43 +613,43 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
         <v>0.3333333333333333</v>
       </c>
-      <c r="E4">
-        <v>0.25</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
       <c r="G4">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="H4">
-        <v>44.19649</v>
+        <v>86.46647</v>
       </c>
       <c r="I4">
-        <v>55.80351</v>
+        <v>13.53353</v>
       </c>
       <c r="J4">
-        <v>6.994140000000002</v>
+        <v>45.86589</v>
       </c>
       <c r="K4">
-        <v>93.00586</v>
+        <v>54.13411</v>
       </c>
       <c r="L4">
-        <v>6.994140000000002</v>
+        <v>45.86589</v>
       </c>
       <c r="M4">
-        <v>93.00586</v>
+        <v>54.13411</v>
       </c>
       <c r="N4">
-        <v>93.72969000000001</v>
+        <v>60.04236</v>
       </c>
       <c r="O4">
-        <v>6.270309999999995</v>
+        <v>39.95764</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -642,43 +660,43 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D5">
         <v>1.333333333333333</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>1.714285714285714</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="G5">
-        <v>1.333333333333333</v>
+        <v>1.857142857142857</v>
       </c>
       <c r="H5">
-        <v>90.3028</v>
+        <v>95.25282</v>
       </c>
       <c r="I5">
-        <v>9.6972</v>
+        <v>4.74718</v>
       </c>
       <c r="J5">
-        <v>54.74641</v>
+        <v>69.93451999999999</v>
       </c>
       <c r="K5">
-        <v>45.25359</v>
+        <v>30.06548</v>
       </c>
       <c r="L5">
-        <v>54.74641</v>
+        <v>69.93451999999999</v>
       </c>
       <c r="M5">
-        <v>45.25359</v>
+        <v>30.06548</v>
       </c>
       <c r="N5">
-        <v>53.45045</v>
+        <v>39.62171</v>
       </c>
       <c r="O5">
-        <v>46.54955</v>
+        <v>60.37829</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -689,7 +707,7 @@
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -726,6 +744,147 @@
       </c>
       <c r="O6">
         <v>30.75790000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E7">
+        <v>0.25</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2.25</v>
+      </c>
+      <c r="H7">
+        <v>44.19649</v>
+      </c>
+      <c r="I7">
+        <v>55.80351</v>
+      </c>
+      <c r="J7">
+        <v>6.994140000000002</v>
+      </c>
+      <c r="K7">
+        <v>93.00586</v>
+      </c>
+      <c r="L7">
+        <v>6.994140000000002</v>
+      </c>
+      <c r="M7">
+        <v>93.00586</v>
+      </c>
+      <c r="N7">
+        <v>93.72969000000001</v>
+      </c>
+      <c r="O7">
+        <v>6.270309999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="H8">
+        <v>90.3028</v>
+      </c>
+      <c r="I8">
+        <v>9.6972</v>
+      </c>
+      <c r="J8">
+        <v>54.74641</v>
+      </c>
+      <c r="K8">
+        <v>45.25359</v>
+      </c>
+      <c r="L8">
+        <v>54.74641</v>
+      </c>
+      <c r="M8">
+        <v>45.25359</v>
+      </c>
+      <c r="N8">
+        <v>53.45045</v>
+      </c>
+      <c r="O8">
+        <v>46.54955</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>3.333333333333333</v>
+      </c>
+      <c r="F9">
+        <v>0.5</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>99.51721000000001</v>
+      </c>
+      <c r="I9">
+        <v>0.48279</v>
+      </c>
+      <c r="J9">
+        <v>93.72367</v>
+      </c>
+      <c r="K9">
+        <v>6.27633</v>
+      </c>
+      <c r="L9">
+        <v>93.72367</v>
+      </c>
+      <c r="M9">
+        <v>6.27633</v>
+      </c>
+      <c r="N9">
+        <v>16.60874</v>
+      </c>
+      <c r="O9">
+        <v>83.39126</v>
       </c>
     </row>
   </sheetData>

--- a/upcoming.xlsx
+++ b/upcoming.xlsx
@@ -569,40 +569,40 @@
         <v>23</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="F3">
-        <v>1.5</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="G3">
         <v>4</v>
       </c>
       <c r="H3">
-        <v>99.90881</v>
+        <v>99.68172</v>
       </c>
       <c r="I3">
-        <v>0.09118999999999999</v>
+        <v>0.31828</v>
       </c>
       <c r="J3">
-        <v>98.35861</v>
+        <v>95.62368000000001</v>
       </c>
       <c r="K3">
-        <v>1.64139</v>
+        <v>4.37632</v>
       </c>
       <c r="L3">
-        <v>98.35861</v>
+        <v>95.62368000000001</v>
       </c>
       <c r="M3">
-        <v>1.64139</v>
+        <v>4.37632</v>
       </c>
       <c r="N3">
-        <v>13.93078</v>
+        <v>18.84133</v>
       </c>
       <c r="O3">
-        <v>86.06922</v>
+        <v>81.15867</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -663,40 +663,40 @@
         <v>25</v>
       </c>
       <c r="D5">
-        <v>1.333333333333333</v>
+        <v>1.5</v>
       </c>
       <c r="E5">
         <v>1.714285714285714</v>
       </c>
       <c r="F5">
-        <v>1.666666666666667</v>
+        <v>1.5</v>
       </c>
       <c r="G5">
         <v>1.857142857142857</v>
       </c>
       <c r="H5">
-        <v>95.25282</v>
+        <v>95.9816</v>
       </c>
       <c r="I5">
-        <v>4.74718</v>
+        <v>4.0184</v>
       </c>
       <c r="J5">
-        <v>69.93451999999999</v>
+        <v>72.73227</v>
       </c>
       <c r="K5">
-        <v>30.06548</v>
+        <v>27.26773</v>
       </c>
       <c r="L5">
-        <v>69.93451999999999</v>
+        <v>72.73227</v>
       </c>
       <c r="M5">
-        <v>30.06548</v>
+        <v>27.26773</v>
       </c>
       <c r="N5">
-        <v>39.62171</v>
+        <v>36.30379</v>
       </c>
       <c r="O5">
-        <v>60.37829</v>
+        <v>63.69621</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -757,40 +757,40 @@
         <v>27</v>
       </c>
       <c r="D7">
-        <v>0.3333333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="E7">
         <v>0.25</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="G7">
         <v>2.25</v>
       </c>
       <c r="H7">
-        <v>44.19649</v>
+        <v>63.21206</v>
       </c>
       <c r="I7">
-        <v>55.80351</v>
+        <v>36.78794</v>
       </c>
       <c r="J7">
-        <v>6.994140000000002</v>
+        <v>19.52637</v>
       </c>
       <c r="K7">
-        <v>93.00586</v>
+        <v>80.47363</v>
       </c>
       <c r="L7">
-        <v>6.994140000000002</v>
+        <v>19.52637</v>
       </c>
       <c r="M7">
-        <v>93.00586</v>
+        <v>80.47363</v>
       </c>
       <c r="N7">
-        <v>93.72969000000001</v>
+        <v>88.32879</v>
       </c>
       <c r="O7">
-        <v>6.270309999999995</v>
+        <v>11.67121</v>
       </c>
     </row>
     <row r="8" spans="1:15">
